--- a/TEEmployee/App_Data/user-以群組、小組、身分分類v7.xlsx
+++ b/TEEmployee/App_Data/user-以群組、小組、身分分類v7.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\NETCORE\TEEmployee\TEEmployee\App_Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8490"/>
   </bookViews>
@@ -10,12 +15,12 @@
     <sheet name="計畫主管以重要主管分類" sheetId="2" r:id="rId1"/>
     <sheet name="計畫主管以計畫編號分類" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="502">
   <si>
     <t>empno</t>
   </si>
@@ -1663,14 +1668,18 @@
   </si>
   <si>
     <t>(02)2521-5550#8256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2117,18 +2126,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2157,6 +2154,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2219,7 +2228,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2251,9 +2260,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2285,6 +2295,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2460,7 +2471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -2470,10 +2481,10 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F73" sqref="F73"/>
+      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="9" style="53"/>
     <col min="8" max="8" width="35.28515625" bestFit="1" customWidth="1"/>
@@ -2498,7 +2509,7 @@
     <col min="34" max="34" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2559,7 +2570,7 @@
       <c r="T1" s="27"/>
       <c r="U1" s="27"/>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>170</v>
       </c>
@@ -2608,7 +2619,7 @@
       </c>
       <c r="U2" s="27"/>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>281</v>
       </c>
@@ -2658,16 +2669,16 @@
       <c r="V3" s="21"/>
       <c r="W3" s="21"/>
       <c r="X3" s="21"/>
-      <c r="Y3" s="54" t="str">
+      <c r="Y3" s="64" t="str">
         <f>I1</f>
         <v>部門主管</v>
       </c>
-      <c r="Z3" s="55"/>
+      <c r="Z3" s="65"/>
       <c r="AA3" s="21"/>
       <c r="AB3" s="21"/>
       <c r="AC3" s="21"/>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>245</v>
       </c>
@@ -2725,7 +2736,7 @@
       <c r="AB4" s="21"/>
       <c r="AC4" s="21"/>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>110</v>
       </c>
@@ -2779,7 +2790,7 @@
       <c r="AB5" s="21"/>
       <c r="AC5" s="21"/>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>117</v>
       </c>
@@ -2835,7 +2846,7 @@
       <c r="AH6" s="31"/>
       <c r="AI6" s="32"/>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>337</v>
       </c>
@@ -2876,24 +2887,24 @@
       <c r="R7" s="17"/>
       <c r="S7" s="17"/>
       <c r="T7" s="7"/>
-      <c r="V7" s="58" t="s">
+      <c r="V7" s="54" t="s">
         <v>441</v>
       </c>
-      <c r="W7" s="59"/>
+      <c r="W7" s="55"/>
       <c r="X7" s="21"/>
-      <c r="Y7" s="60" t="s">
+      <c r="Y7" s="56" t="s">
         <v>442</v>
       </c>
-      <c r="Z7" s="60"/>
+      <c r="Z7" s="56"/>
       <c r="AA7" s="21"/>
-      <c r="AB7" s="61" t="s">
+      <c r="AB7" s="57" t="s">
         <v>443</v>
       </c>
-      <c r="AC7" s="61"/>
+      <c r="AC7" s="57"/>
       <c r="AF7" s="32"/>
       <c r="AI7" s="32"/>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>289</v>
       </c>
@@ -2960,7 +2971,7 @@
       <c r="AF8" s="33"/>
       <c r="AI8" s="33"/>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>98</v>
       </c>
@@ -3003,28 +3014,28 @@
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
       <c r="T9" s="7"/>
-      <c r="V9" s="62" t="s">
+      <c r="V9" s="58" t="s">
         <v>437</v>
       </c>
-      <c r="W9" s="63"/>
-      <c r="Y9" s="64" t="s">
+      <c r="W9" s="59"/>
+      <c r="Y9" s="60" t="s">
         <v>437</v>
       </c>
-      <c r="Z9" s="65"/>
-      <c r="AB9" s="66" t="s">
+      <c r="Z9" s="61"/>
+      <c r="AB9" s="62" t="s">
         <v>437</v>
       </c>
-      <c r="AC9" s="67"/>
-      <c r="AE9" s="56" t="s">
+      <c r="AC9" s="63"/>
+      <c r="AE9" s="66" t="s">
         <v>440</v>
       </c>
-      <c r="AF9" s="56"/>
-      <c r="AH9" s="56" t="s">
+      <c r="AF9" s="66"/>
+      <c r="AH9" s="66" t="s">
         <v>437</v>
       </c>
-      <c r="AI9" s="56"/>
-    </row>
-    <row r="10" spans="1:35">
+      <c r="AI9" s="66"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="38">
         <v>8056</v>
       </c>
@@ -3091,12 +3102,12 @@
       <c r="AF10" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="AH10" s="57" t="s">
+      <c r="AH10" s="67" t="s">
         <v>438</v>
       </c>
-      <c r="AI10" s="57"/>
-    </row>
-    <row r="11" spans="1:35">
+      <c r="AI10" s="67"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>62</v>
       </c>
@@ -3163,12 +3174,12 @@
       <c r="AF11" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="AH11" s="57" t="s">
+      <c r="AH11" s="67" t="s">
         <v>439</v>
       </c>
-      <c r="AI11" s="57"/>
-    </row>
-    <row r="12" spans="1:35">
+      <c r="AI11" s="67"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>66</v>
       </c>
@@ -3234,7 +3245,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>273</v>
       </c>
@@ -3267,7 +3278,9 @@
       <c r="L13" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="M13" s="17"/>
+      <c r="M13" s="17" t="s">
+        <v>501</v>
+      </c>
       <c r="N13" s="43"/>
       <c r="O13" s="23"/>
       <c r="P13" s="23"/>
@@ -3280,7 +3293,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -3326,7 +3339,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>221</v>
       </c>
@@ -3368,7 +3381,7 @@
       <c r="S15" s="17"/>
       <c r="T15" s="7"/>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>269</v>
       </c>
@@ -3412,7 +3425,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>333</v>
       </c>
@@ -3454,7 +3467,7 @@
       <c r="S17" s="17"/>
       <c r="T17" s="7"/>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>58</v>
       </c>
@@ -3498,7 +3511,7 @@
       <c r="S18" s="17"/>
       <c r="T18" s="7"/>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>70</v>
       </c>
@@ -3540,7 +3553,7 @@
       <c r="S19" s="17"/>
       <c r="T19" s="7"/>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>265</v>
       </c>
@@ -3582,7 +3595,7 @@
       <c r="S20" s="17"/>
       <c r="T20" s="7"/>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>90</v>
       </c>
@@ -3624,7 +3637,7 @@
       <c r="S21" s="17"/>
       <c r="T21" s="7"/>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>102</v>
       </c>
@@ -3666,7 +3679,7 @@
       <c r="S22" s="17"/>
       <c r="T22" s="7"/>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>249</v>
       </c>
@@ -3714,7 +3727,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>174</v>
       </c>
@@ -3760,7 +3773,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="38">
         <v>7458</v>
       </c>
@@ -3802,7 +3815,7 @@
       <c r="S25" s="17"/>
       <c r="T25" s="7"/>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>321</v>
       </c>
@@ -3852,7 +3865,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -3904,7 +3917,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>318</v>
       </c>
@@ -3947,7 +3960,7 @@
       <c r="T28" s="7"/>
       <c r="U28" s="8"/>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>285</v>
       </c>
@@ -3989,7 +4002,7 @@
       <c r="S29" s="16"/>
       <c r="T29" s="7"/>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>253</v>
       </c>
@@ -4031,7 +4044,7 @@
       <c r="S30" s="16"/>
       <c r="T30" s="7"/>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>193</v>
       </c>
@@ -4077,7 +4090,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>257</v>
       </c>
@@ -4119,7 +4132,7 @@
       <c r="S32" s="16"/>
       <c r="T32" s="7"/>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>74</v>
       </c>
@@ -4161,7 +4174,7 @@
       <c r="S33" s="16"/>
       <c r="T33" s="7"/>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>78</v>
       </c>
@@ -4203,7 +4216,7 @@
       <c r="S34" s="16"/>
       <c r="T34" s="7"/>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>82</v>
       </c>
@@ -4245,7 +4258,7 @@
       <c r="S35" s="16"/>
       <c r="T35" s="7"/>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="50">
         <v>8284</v>
       </c>
@@ -4287,7 +4300,7 @@
       <c r="S36" s="16"/>
       <c r="T36" s="7"/>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>106</v>
       </c>
@@ -4331,7 +4344,7 @@
       <c r="S37" s="16"/>
       <c r="T37" s="7"/>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>297</v>
       </c>
@@ -4381,7 +4394,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>54</v>
       </c>
@@ -4425,7 +4438,7 @@
       <c r="S39" s="16"/>
       <c r="T39" s="7"/>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>86</v>
       </c>
@@ -4469,7 +4482,7 @@
       <c r="S40" s="16"/>
       <c r="T40" s="7"/>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>229</v>
       </c>
@@ -4511,7 +4524,7 @@
       <c r="S41" s="16"/>
       <c r="T41" s="7"/>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>137</v>
       </c>
@@ -4553,7 +4566,7 @@
       <c r="S42" s="16"/>
       <c r="T42" s="7"/>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>146</v>
       </c>
@@ -4595,7 +4608,7 @@
       <c r="S43" s="16"/>
       <c r="T43" s="7"/>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>329</v>
       </c>
@@ -4647,7 +4660,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -4692,7 +4705,7 @@
       <c r="T45" s="7"/>
       <c r="U45" s="8"/>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>37</v>
       </c>
@@ -4737,7 +4750,7 @@
       <c r="T46" s="7"/>
       <c r="U46" s="8"/>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>150</v>
       </c>
@@ -4780,7 +4793,7 @@
       <c r="T47" s="7"/>
       <c r="U47" s="8"/>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>233</v>
       </c>
@@ -4822,7 +4835,7 @@
       <c r="S48" s="16"/>
       <c r="T48" s="7"/>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="45">
         <v>8103</v>
       </c>
@@ -4866,7 +4879,7 @@
       <c r="S49" s="16"/>
       <c r="T49" s="7"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="45">
         <v>7340</v>
       </c>
@@ -4910,7 +4923,7 @@
       <c r="S50" s="16"/>
       <c r="T50" s="7"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>154</v>
       </c>
@@ -4956,7 +4969,7 @@
       <c r="S51" s="41"/>
       <c r="T51" s="7"/>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>133</v>
       </c>
@@ -5004,7 +5017,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>121</v>
       </c>
@@ -5046,7 +5059,7 @@
       <c r="S53" s="18"/>
       <c r="T53" s="7"/>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>325</v>
       </c>
@@ -5088,7 +5101,7 @@
       <c r="S54" s="18"/>
       <c r="T54" s="7"/>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>15</v>
       </c>
@@ -5130,7 +5143,7 @@
       <c r="S55" s="18"/>
       <c r="T55" s="7"/>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>33</v>
       </c>
@@ -5172,7 +5185,7 @@
       <c r="S56" s="18"/>
       <c r="T56" s="7"/>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>314</v>
       </c>
@@ -5214,7 +5227,7 @@
       <c r="S57" s="18"/>
       <c r="T57" s="7"/>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>8266</v>
       </c>
@@ -5256,7 +5269,7 @@
       <c r="S58" s="18"/>
       <c r="T58" s="7"/>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>8290</v>
       </c>
@@ -5300,7 +5313,7 @@
       <c r="S59" s="18"/>
       <c r="T59" s="7"/>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>241</v>
       </c>
@@ -5344,7 +5357,7 @@
       <c r="S60" s="18"/>
       <c r="T60" s="7"/>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>189</v>
       </c>
@@ -5386,7 +5399,7 @@
       <c r="S61" s="18"/>
       <c r="T61" s="7"/>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>306</v>
       </c>
@@ -5428,7 +5441,7 @@
       <c r="S62" s="18"/>
       <c r="T62" s="7"/>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>29</v>
       </c>
@@ -5474,7 +5487,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>94</v>
       </c>
@@ -5516,7 +5529,7 @@
       <c r="S64" s="18"/>
       <c r="T64" s="7"/>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>8026</v>
       </c>
@@ -5558,7 +5571,7 @@
       <c r="S65" s="18"/>
       <c r="T65" s="7"/>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>8247</v>
       </c>
@@ -5600,7 +5613,7 @@
       <c r="S66" s="18"/>
       <c r="T66" s="7"/>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>178</v>
       </c>
@@ -5642,7 +5655,7 @@
       <c r="S67" s="18"/>
       <c r="T67" s="7"/>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>129</v>
       </c>
@@ -5688,7 +5701,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>293</v>
       </c>
@@ -5734,7 +5747,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>261</v>
       </c>
@@ -5776,7 +5789,7 @@
       <c r="S70" s="18"/>
       <c r="T70" s="7"/>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>186</v>
       </c>
@@ -5818,7 +5831,7 @@
       <c r="S71" s="18"/>
       <c r="T71" s="7"/>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>142</v>
       </c>
@@ -5860,7 +5873,7 @@
       <c r="S72" s="18"/>
       <c r="T72" s="7"/>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>302</v>
       </c>
@@ -5902,7 +5915,7 @@
       <c r="S73" s="18"/>
       <c r="T73" s="7"/>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>341</v>
       </c>
@@ -5944,7 +5957,7 @@
       <c r="S74" s="18"/>
       <c r="T74" s="7"/>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>50</v>
       </c>
@@ -5986,7 +5999,7 @@
       <c r="S75" s="18"/>
       <c r="T75" s="7"/>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>310</v>
       </c>
@@ -6028,7 +6041,7 @@
       <c r="S76" s="18"/>
       <c r="T76" s="7"/>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>216</v>
       </c>
@@ -6070,7 +6083,7 @@
       <c r="S77" s="18"/>
       <c r="T77" s="7"/>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>161</v>
       </c>
@@ -6112,7 +6125,7 @@
       <c r="S78" s="49"/>
       <c r="T78" s="7"/>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>182</v>
       </c>
@@ -6154,7 +6167,7 @@
       <c r="S79" s="49"/>
       <c r="T79" s="7"/>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>201</v>
       </c>
@@ -6196,7 +6209,7 @@
       <c r="S80" s="49"/>
       <c r="T80" s="7"/>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>19</v>
       </c>
@@ -6238,7 +6251,7 @@
       <c r="S81" s="49"/>
       <c r="T81" s="7"/>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>205</v>
       </c>
@@ -6282,17 +6295,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AH11:AI11"/>
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="Y7:Z7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="V9:W9"/>
     <mergeCell ref="Y9:Z9"/>
     <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AH11:AI11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6313,7 +6326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U86"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6323,7 +6336,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="31.140625" customWidth="1"/>
     <col min="9" max="11" width="11.7109375" style="21" customWidth="1"/>
@@ -6331,7 +6344,7 @@
     <col min="13" max="18" width="11.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6387,7 +6400,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>321</v>
       </c>
@@ -6432,7 +6445,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>166</v>
       </c>
@@ -6473,7 +6486,7 @@
       <c r="R3" s="16"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>285</v>
       </c>
@@ -6514,7 +6527,7 @@
       <c r="R4" s="16"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>253</v>
       </c>
@@ -6555,7 +6568,7 @@
       <c r="R5" s="16"/>
       <c r="S5" s="7"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>257</v>
       </c>
@@ -6596,7 +6609,7 @@
       <c r="R6" s="16"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
@@ -6642,7 +6655,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="8"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>318</v>
       </c>
@@ -6683,7 +6696,7 @@
       <c r="R8" s="16"/>
       <c r="S8" s="7"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>74</v>
       </c>
@@ -6724,7 +6737,7 @@
       <c r="R9" s="16"/>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -6767,7 +6780,7 @@
       <c r="R10" s="16"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>78</v>
       </c>
@@ -6808,7 +6821,7 @@
       <c r="R11" s="16"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>82</v>
       </c>
@@ -6849,7 +6862,7 @@
       <c r="R12" s="16"/>
       <c r="S12" s="7"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>106</v>
       </c>
@@ -6890,7 +6903,7 @@
       <c r="R13" s="16"/>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>297</v>
       </c>
@@ -6935,7 +6948,7 @@
       <c r="R14" s="16"/>
       <c r="S14" s="7"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
@@ -6978,7 +6991,7 @@
       <c r="R15" s="16"/>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>86</v>
       </c>
@@ -7021,7 +7034,7 @@
       <c r="R16" s="16"/>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>229</v>
       </c>
@@ -7062,7 +7075,7 @@
       <c r="R17" s="16"/>
       <c r="S17" s="7"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>137</v>
       </c>
@@ -7103,7 +7116,7 @@
       <c r="R18" s="16"/>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>146</v>
       </c>
@@ -7144,7 +7157,7 @@
       <c r="R19" s="16"/>
       <c r="S19" s="7"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>329</v>
       </c>
@@ -7191,7 +7204,7 @@
       <c r="R20" s="16"/>
       <c r="S20" s="7"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -7234,7 +7247,7 @@
       <c r="R21" s="16"/>
       <c r="S21" s="7"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
@@ -7277,7 +7290,7 @@
       <c r="R22" s="16"/>
       <c r="S22" s="7"/>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>150</v>
       </c>
@@ -7318,7 +7331,7 @@
       <c r="R23" s="16"/>
       <c r="S23" s="7"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>233</v>
       </c>
@@ -7359,7 +7372,7 @@
       <c r="R24" s="16"/>
       <c r="S24" s="7"/>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>281</v>
       </c>
@@ -7406,7 +7419,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>110</v>
       </c>
@@ -7451,7 +7464,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>117</v>
       </c>
@@ -7492,7 +7505,7 @@
       <c r="R27" s="17"/>
       <c r="S27" s="7"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>337</v>
       </c>
@@ -7533,7 +7546,7 @@
       <c r="R28" s="17"/>
       <c r="S28" s="7"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>289</v>
       </c>
@@ -7574,7 +7587,7 @@
       <c r="R29" s="17"/>
       <c r="S29" s="7"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>98</v>
       </c>
@@ -7615,7 +7628,7 @@
       <c r="R30" s="17"/>
       <c r="S30" s="7"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>62</v>
       </c>
@@ -7658,7 +7671,7 @@
       <c r="R31" s="17"/>
       <c r="S31" s="7"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>66</v>
       </c>
@@ -7701,7 +7714,7 @@
       <c r="R32" s="17"/>
       <c r="S32" s="7"/>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>273</v>
       </c>
@@ -7744,7 +7757,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>221</v>
       </c>
@@ -7785,7 +7798,7 @@
       <c r="R34" s="17"/>
       <c r="S34" s="7"/>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>269</v>
       </c>
@@ -7830,7 +7843,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>333</v>
       </c>
@@ -7871,7 +7884,7 @@
       <c r="R36" s="17"/>
       <c r="S36" s="7"/>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>58</v>
       </c>
@@ -7914,7 +7927,7 @@
       <c r="R37" s="17"/>
       <c r="S37" s="7"/>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>70</v>
       </c>
@@ -7955,7 +7968,7 @@
       <c r="R38" s="17"/>
       <c r="S38" s="7"/>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>265</v>
       </c>
@@ -7996,7 +8009,7 @@
       <c r="R39" s="17"/>
       <c r="S39" s="7"/>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>90</v>
       </c>
@@ -8037,7 +8050,7 @@
       <c r="R40" s="17"/>
       <c r="S40" s="7"/>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>102</v>
       </c>
@@ -8078,7 +8091,7 @@
       <c r="R41" s="17"/>
       <c r="S41" s="7"/>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>174</v>
       </c>
@@ -8127,7 +8140,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>249</v>
       </c>
@@ -8174,7 +8187,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>154</v>
       </c>
@@ -8217,7 +8230,7 @@
       <c r="R44" s="26"/>
       <c r="S44" s="7"/>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>133</v>
       </c>
@@ -8266,7 +8279,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>277</v>
       </c>
@@ -8312,7 +8325,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>261</v>
       </c>
@@ -8353,7 +8366,7 @@
       <c r="R47" s="18"/>
       <c r="S47" s="7"/>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>186</v>
       </c>
@@ -8394,7 +8407,7 @@
       <c r="R48" s="18"/>
       <c r="S48" s="7"/>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>121</v>
       </c>
@@ -8435,7 +8448,7 @@
       <c r="R49" s="18"/>
       <c r="S49" s="7"/>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>325</v>
       </c>
@@ -8476,7 +8489,7 @@
       <c r="R50" s="18"/>
       <c r="S50" s="7"/>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>15</v>
       </c>
@@ -8517,7 +8530,7 @@
       <c r="R51" s="18"/>
       <c r="S51" s="7"/>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>33</v>
       </c>
@@ -8558,7 +8571,7 @@
       <c r="R52" s="18"/>
       <c r="S52" s="7"/>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>50</v>
       </c>
@@ -8599,7 +8612,7 @@
       <c r="R53" s="18"/>
       <c r="S53" s="7"/>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>314</v>
       </c>
@@ -8640,7 +8653,7 @@
       <c r="R54" s="18"/>
       <c r="S54" s="7"/>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>241</v>
       </c>
@@ -8683,7 +8696,7 @@
       <c r="R55" s="18"/>
       <c r="S55" s="7"/>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>189</v>
       </c>
@@ -8724,7 +8737,7 @@
       <c r="R56" s="18"/>
       <c r="S56" s="7"/>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>237</v>
       </c>
@@ -8765,7 +8778,7 @@
       <c r="R57" s="18"/>
       <c r="S57" s="7"/>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>306</v>
       </c>
@@ -8806,7 +8819,7 @@
       <c r="R58" s="18"/>
       <c r="S58" s="7"/>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>29</v>
       </c>
@@ -8847,7 +8860,7 @@
       <c r="R59" s="18"/>
       <c r="S59" s="7"/>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>94</v>
       </c>
@@ -8888,7 +8901,7 @@
       <c r="R60" s="18"/>
       <c r="S60" s="7"/>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>129</v>
       </c>
@@ -8933,7 +8946,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>293</v>
       </c>
@@ -8978,7 +8991,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>125</v>
       </c>
@@ -9019,7 +9032,7 @@
       <c r="R63" s="18"/>
       <c r="S63" s="7"/>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>142</v>
       </c>
@@ -9060,7 +9073,7 @@
       <c r="R64" s="18"/>
       <c r="S64" s="7"/>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>302</v>
       </c>
@@ -9101,7 +9114,7 @@
       <c r="R65" s="18"/>
       <c r="S65" s="7"/>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>341</v>
       </c>
@@ -9142,7 +9155,7 @@
       <c r="R66" s="18"/>
       <c r="S66" s="7"/>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>310</v>
       </c>
@@ -9183,7 +9196,7 @@
       <c r="R67" s="18"/>
       <c r="S67" s="7"/>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>216</v>
       </c>
@@ -9224,7 +9237,7 @@
       <c r="R68" s="18"/>
       <c r="S68" s="7"/>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>170</v>
       </c>
@@ -9269,7 +9282,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>245</v>
       </c>
@@ -9314,7 +9327,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>193</v>
       </c>
@@ -9359,7 +9372,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>178</v>
       </c>
@@ -9406,7 +9419,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>24</v>
       </c>
@@ -9451,7 +9464,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>197</v>
       </c>
@@ -9492,7 +9505,7 @@
       <c r="R74" s="20"/>
       <c r="S74" s="7"/>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>161</v>
       </c>
@@ -9533,7 +9546,7 @@
       <c r="R75" s="20"/>
       <c r="S75" s="7"/>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>182</v>
       </c>
@@ -9574,7 +9587,7 @@
       <c r="R76" s="20"/>
       <c r="S76" s="7"/>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>201</v>
       </c>
@@ -9615,7 +9628,7 @@
       <c r="R77" s="20"/>
       <c r="S77" s="7"/>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>19</v>
       </c>
@@ -9656,7 +9669,7 @@
       <c r="R78" s="20"/>
       <c r="S78" s="7"/>
     </row>
-    <row r="79" spans="1:19">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>225</v>
       </c>
@@ -9697,7 +9710,7 @@
       <c r="R79" s="20"/>
       <c r="S79" s="7"/>
     </row>
-    <row r="80" spans="1:19">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>205</v>
       </c>
@@ -9738,7 +9751,7 @@
       <c r="R80" s="20"/>
       <c r="S80" s="7"/>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>210</v>
       </c>
